--- a/users.xlsx
+++ b/users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>admin3@gmail.com</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>account_non_locked</t>
   </si>
 </sst>
 </file>
@@ -412,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +432,7 @@
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +451,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,8 +465,8 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -462,8 +474,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -473,8 +488,8 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>123456</v>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -482,8 +497,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -493,8 +511,8 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>123456</v>
+      <c r="D4" t="s">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -502,8 +520,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -513,8 +534,8 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>123456</v>
+      <c r="D5" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -522,8 +543,11 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -533,14 +557,17 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>123456</v>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
